--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-2.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,14 +476,14 @@
         <v>0.721</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>10.39578538104309</v>
+        <v>10.39578538104356</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.486</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-9.092958980508099</v>
+        <v>-9.092958980508401</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.725</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>11.4847051812892</v>
+        <v>11.4847051812897</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.482</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-9.847863328831934</v>
+        <v>-9.847863328832267</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.728</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>11.9724218351593</v>
+        <v>11.9724218351597</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.48</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-10.10640990327444</v>
+        <v>-10.10640990327478</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.73</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>12.1410003896533</v>
+        <v>12.14100038965371</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.48</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-10.107037498998</v>
+        <v>-10.10703749899833</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.731</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>12.09224878326199</v>
+        <v>12.09224878326241</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.48</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-9.971745204243691</v>
+        <v>-9.971745204244023</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.732</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>11.91938535992227</v>
+        <v>11.91779114197797</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-9.768690953992305</v>
+        <v>-9.768690953992637</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.731</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>11.68801885737243</v>
+        <v>11.68611502180398</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.485</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-9.539352109166913</v>
+        <v>-9.539352109167236</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.733</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>11.41978020193386</v>
+        <v>11.41781749674152</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.487</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-9.288634483981161</v>
+        <v>-9.288634483981468</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.732</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>11.12158850680964</v>
+        <v>11.12158850681</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-9.024401623984879</v>
+        <v>-9.024401623985183</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.735</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>10.80627456609749</v>
+        <v>10.80627456609785</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-8.763467019934854</v>
+        <v>-8.763467019935149</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.732</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>10.49178631193454</v>
+        <v>10.49178631193489</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-8.50000526369927</v>
+        <v>-8.50000526369956</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.732</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>10.18051858510176</v>
+        <v>10.1805185851021</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-8.245603167785038</v>
+        <v>-8.245603167785319</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.732</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>9.881389998612761</v>
+        <v>9.881389998613088</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-8.000579677585495</v>
+        <v>-8.000579677585764</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.731</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>9.588130248941354</v>
+        <v>9.588130248941674</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-7.764384800055011</v>
+        <v>-7.764384800055272</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.731</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>9.307343872603488</v>
+        <v>9.3073438726038</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-7.537814368840421</v>
+        <v>-7.537814368840674</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.73</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>9.037584938850754</v>
+        <v>9.037584938851058</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-7.317835549146422</v>
+        <v>-7.317835549146668</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.73</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>8.782965580071245</v>
+        <v>8.782965580071542</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-7.107770878217829</v>
+        <v>-7.107770878218066</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.729</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>8.535984694490086</v>
+        <v>8.535984694490374</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-6.904230187418623</v>
+        <v>-6.904230187418856</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.729</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>8.283739829864761</v>
+        <v>8.283739829865038</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-6.692514872798009</v>
+        <v>-6.692514872798235</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.728</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>8.028284752637626</v>
+        <v>8.028284752637893</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-6.483407520786068</v>
+        <v>-6.483407520786292</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.727</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>7.795059119680561</v>
+        <v>7.795059119680827</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-6.306206692373694</v>
+        <v>-6.306206692373905</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.726</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>7.600636656866182</v>
+        <v>7.600636656866434</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-6.151031974696235</v>
+        <v>-6.151031974696439</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.726</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>7.420600804324278</v>
+        <v>7.420600804324529</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-5.997725436958463</v>
+        <v>-5.997725436958664</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.725</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>7.231847563963123</v>
+        <v>7.231847563963369</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.512</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-5.839451751107245</v>
+        <v>-5.839451751107441</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.724</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>7.051742658646905</v>
+        <v>7.051742658647142</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.512</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-5.697088385242538</v>
+        <v>-5.697088385242731</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.723</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>6.889375865108345</v>
+        <v>6.889375865108575</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-5.56408459741853</v>
+        <v>-5.564084597418717</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.723</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>6.73698608411014</v>
+        <v>6.736986084110367</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.514</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-5.434375393559564</v>
+        <v>-5.434375393559746</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.722</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>6.593383616861064</v>
+        <v>6.593383616861282</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.515</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-5.316168702517169</v>
+        <v>-5.316168702517349</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.721</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>6.456750642246716</v>
+        <v>6.456750642246931</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.516</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-5.198775362728583</v>
+        <v>-5.198775362728756</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.72</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>6.320946769089422</v>
+        <v>6.320946769089634</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.517</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-5.080523632188335</v>
+        <v>-5.080523632188504</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.72</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>6.18136600673903</v>
+        <v>6.181366006739237</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.518</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-4.963097267439792</v>
+        <v>-4.963097267439958</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.719</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>6.043357573174253</v>
+        <v>6.043357573174457</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.519</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-4.845149173534002</v>
+        <v>-4.845149173534163</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.718</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>5.905309142231768</v>
+        <v>5.905309142231967</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.519</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-4.733712901872722</v>
+        <v>-4.733712901872883</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.717</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>5.77398399122016</v>
+        <v>5.773983991220356</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.52</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-4.627088685915679</v>
+        <v>-4.627088685915833</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.717</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>5.647026386914688</v>
+        <v>5.647026386914877</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.521</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-4.520773279367052</v>
+        <v>-4.520773279367205</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.716</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>5.518352489444417</v>
+        <v>5.518352489444603</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.522</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-4.412897051168459</v>
+        <v>-4.412897051168606</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.715</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>5.391056013096969</v>
+        <v>5.39105601309715</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.523</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-4.305827491558564</v>
+        <v>-4.305827491558711</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.715</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>5.264067217981242</v>
+        <v>5.264067217981421</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.523</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-4.198760816914703</v>
+        <v>-4.198760816914844</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.714</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>5.138715836665211</v>
+        <v>5.138715836665386</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.524</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-4.093956558336106</v>
+        <v>-4.093956558336245</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.713</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>5.015431878334225</v>
+        <v>5.015431878334395</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.525</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-3.989758383267691</v>
+        <v>-3.989758383267827</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.713</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>4.885913722608685</v>
+        <v>4.885913722608851</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.526</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-3.884303478972632</v>
+        <v>-3.884303478972761</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.712</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>4.759726957710791</v>
+        <v>4.75972695771095</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.527</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-3.781414201408118</v>
+        <v>-3.781414201408245</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.711</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>4.639107654767939</v>
+        <v>4.639107654768094</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.527</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-3.679062832961021</v>
+        <v>-3.679062832961144</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.71</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>4.515680916945691</v>
+        <v>4.51568091694584</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.528</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-3.570540977311184</v>
+        <v>-3.570540977311304</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.71</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>4.383106815814274</v>
+        <v>4.383106815814424</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.529</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-3.460611977481832</v>
+        <v>-3.460611977481948</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.709</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>4.252426921515011</v>
+        <v>4.252426921515155</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.53</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-3.35660259863937</v>
+        <v>-3.356602598639482</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.708</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>4.127288368495058</v>
+        <v>4.127288368495196</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.53</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-3.255550490708568</v>
+        <v>-3.25555049070868</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.707</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>4.003816525892772</v>
+        <v>4.003816525892909</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.531</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-3.154741652204334</v>
+        <v>-3.154741652204441</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-2.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-2.xlsx
@@ -447,23 +447,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -473,17 +473,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>10.39578538104356</v>
+        <v>10.22475105066227</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-9.092958980508401</v>
+        <v>8.962961122323344</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -492,17 +492,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>11.4847051812897</v>
+        <v>11.31066010433879</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>0.482</v>
+        <v>0.483</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-9.847863328832267</v>
+        <v>9.795259926630694</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.728</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>11.9724218351597</v>
+        <v>11.78227280740802</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-10.10640990327478</v>
+        <v>10.12122025898004</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -530,17 +530,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>12.14100038965371</v>
+        <v>12.10540917330754</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-10.10703749899833</v>
+        <v>10.07663353652951</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -549,17 +549,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>12.09224878326241</v>
+        <v>12.09218357223904</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.48</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-9.971745204244023</v>
+        <v>9.950072659448441</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -568,17 +568,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>11.91779114197797</v>
+        <v>11.92977891013645</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-9.768690953992637</v>
+        <v>9.743755628409588</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -587,17 +587,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>11.68611502180398</v>
+        <v>11.7106215486308</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.485</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-9.539352109167236</v>
+        <v>9.529179128284055</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.733</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>11.41781749674152</v>
+        <v>11.4364102828901</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-9.288634483981468</v>
+        <v>9.272525502169033</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -625,17 +625,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>11.12158850681</v>
+        <v>11.12381523600852</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
-        <v>0.489</v>
+        <v>0.487</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-9.024401623985183</v>
+        <v>9.018902132617045</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -644,17 +644,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>10.80627456609785</v>
+        <v>10.83441619720558</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
-        <v>0.491</v>
+        <v>0.489</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-8.763467019935149</v>
+        <v>8.795575467541221</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -663,17 +663,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>10.49178631193489</v>
+        <v>10.52698570627915</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
-        <v>0.493</v>
+        <v>0.491</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-8.50000526369956</v>
+        <v>8.528415744102926</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -682,17 +682,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.732</v>
+        <v>0.734</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>10.1805185851021</v>
+        <v>10.20770740677422</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-8.245603167785319</v>
+        <v>8.269550880730003</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -701,17 +701,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>9.881389998613088</v>
+        <v>9.88367822232939</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-8.000579677585764</v>
+        <v>8.021232645655893</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -720,17 +720,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>9.588130248941674</v>
+        <v>9.622127666969543</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
-        <v>0.498</v>
+        <v>0.496</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-7.764384800055272</v>
+        <v>7.781930418200153</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -739,17 +739,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>9.3073438726038</v>
+        <v>9.32507913041114</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-7.537814368840674</v>
+        <v>7.553232046612216</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.73</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>9.037584938851058</v>
+        <v>9.054400321231615</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-7.317835549146668</v>
+        <v>7.342816714260206</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -777,17 +777,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>8.782965580071542</v>
+        <v>8.808789114940764</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
-        <v>0.503</v>
+        <v>0.501</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-7.107770878218066</v>
+        <v>7.131026812517801</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -796,17 +796,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>8.535984694490374</v>
+        <v>8.558170267150484</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-6.904230187418856</v>
+        <v>6.927632510720498</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -815,17 +815,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>8.283739829865038</v>
+        <v>8.288409908357508</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
-        <v>0.506</v>
+        <v>0.504</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-6.692514872798235</v>
+        <v>6.723562374152576</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -834,17 +834,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>8.028284752637893</v>
+        <v>8.030887156803068</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-6.483407520786292</v>
+        <v>6.529949309978495</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -853,17 +853,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>7.795059119680827</v>
+        <v>7.799789158579717</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-6.306206692373905</v>
+        <v>6.355931863473839</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.726</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>7.600636656866434</v>
+        <v>7.604550107610857</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-6.151031974696439</v>
+        <v>6.19396496570448</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -891,17 +891,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>7.420600804324529</v>
+        <v>7.425777357209757</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-5.997725436958664</v>
+        <v>6.036033547856606</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -910,17 +910,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>7.231847563963369</v>
+        <v>7.235242726803082</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>0.512</v>
+        <v>0.51</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-5.839451751107441</v>
+        <v>5.879032779998377</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -929,17 +929,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>7.051742658647142</v>
+        <v>7.063037235206364</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.512</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-5.697088385242731</v>
+        <v>5.74849183758426</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.723</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>6.889375865108575</v>
+        <v>6.908085773431814</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-5.564084597418717</v>
+        <v>5.60370018206456</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -967,17 +967,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>6.736986084110367</v>
+        <v>6.748428011600304</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.514</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-5.434375393559746</v>
+        <v>5.481431751995603</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -986,17 +986,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>6.593383616861282</v>
+        <v>6.605413509219976</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.515</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-5.316168702517349</v>
+        <v>5.342892452839288</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1005,17 +1005,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>6.456750642246931</v>
+        <v>6.47819942042967</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.516</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-5.198775362728756</v>
+        <v>5.234959054931442</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.72</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>6.320946769089634</v>
+        <v>6.3586176590883</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
-        <v>0.517</v>
+        <v>0.516</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-5.080523632188504</v>
+        <v>5.121264239481061</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1043,17 +1043,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>6.181366006739237</v>
+        <v>6.216086200979439</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
-        <v>0.518</v>
+        <v>0.517</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-4.963097267439958</v>
+        <v>5.001070541669161</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1062,17 +1062,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>6.043357573174457</v>
+        <v>6.072739177489574</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
-        <v>0.519</v>
+        <v>0.518</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-4.845149173534163</v>
+        <v>4.887656065525875</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.718</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>5.905309142231967</v>
+        <v>5.930906701576853</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.519</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-4.733712901872883</v>
+        <v>4.78519569190492</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.717</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>5.773983991220356</v>
+        <v>5.797141220689233</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
-        <v>0.52</v>
+        <v>0.519</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-4.627088685915833</v>
+        <v>4.674106399782328</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1119,17 +1119,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>5.647026386914877</v>
+        <v>5.664444841830798</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-4.520773279367205</v>
+        <v>4.575112388505548</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.716</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>5.518352489444603</v>
+        <v>5.538274076513825</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
-        <v>0.522</v>
+        <v>0.521</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-4.412897051168606</v>
+        <v>4.476081692128872</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.715</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>5.39105601309715</v>
+        <v>5.401589832426024</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v>0.523</v>
+        <v>0.522</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-4.305827491558711</v>
+        <v>4.350947825945942</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.715</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>5.264067217981421</v>
+        <v>5.270367138316086</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.523</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-4.198760816914844</v>
+        <v>4.241737290938104</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.714</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>5.138715836665386</v>
+        <v>5.139659968380728</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.524</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-4.093956558336245</v>
+        <v>4.135677218815768</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1214,17 +1214,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.713</v>
+        <v>0.714</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>5.015431878334395</v>
+        <v>5.020693433884322</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
-        <v>0.525</v>
+        <v>0.524</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-3.989758383267827</v>
+        <v>4.03808017982537</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.713</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>4.885913722608851</v>
+        <v>4.904549596865941</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v>0.526</v>
+        <v>0.525</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-3.884303478972761</v>
+        <v>3.939494876973629</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1252,17 +1252,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.712</v>
+        <v>0.713</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>4.75972695771095</v>
+        <v>4.771878806460775</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
-        <v>0.527</v>
+        <v>0.526</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-3.781414201408245</v>
+        <v>3.831016271742117</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1271,17 +1271,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.711</v>
+        <v>0.712</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>4.639107654768094</v>
+        <v>4.65092827715513</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
-        <v>0.527</v>
+        <v>0.526</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-3.679062832961144</v>
+        <v>3.732824988180843</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1290,17 +1290,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>4.51568091694584</v>
+        <v>4.535651457210793</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
-        <v>0.528</v>
+        <v>0.527</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-3.570540977311304</v>
+        <v>3.611928577570071</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1309,17 +1309,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>4.383106815814424</v>
+        <v>4.411475633763272</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v>0.529</v>
+        <v>0.528</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-3.460611977481948</v>
+        <v>3.4941366707175</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.709</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>4.252426921515155</v>
+        <v>4.276067252683026</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>0.53</v>
+        <v>0.529</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-3.356602598639482</v>
+        <v>3.37920012524998</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1347,17 +1347,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.708</v>
+        <v>0.709</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>4.127288368495196</v>
+        <v>4.143672120870374</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
-        <v>0.53</v>
+        <v>0.529</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-3.25555049070868</v>
+        <v>3.256066803923972</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1366,17 +1366,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.707</v>
+        <v>0.708</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>4.003816525892909</v>
+        <v>4.015023143170117</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
-        <v>0.531</v>
+        <v>0.53</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-3.154741652204441</v>
+        <v>3.149771827292961</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-2.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-2.xlsx
@@ -476,14 +476,14 @@
         <v>0.72</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>10.22475105066227</v>
+        <v>10.29794193656088</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.487</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.962961122323344</v>
+        <v>9.024311771079816</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -492,17 +492,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>11.31066010433879</v>
+        <v>11.39181490481353</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.795259926630694</v>
+        <v>9.806668856222636</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.728</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>11.78227280740802</v>
+        <v>11.88627265239164</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.481</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>10.12122025898004</v>
+        <v>10.11066061221439</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.729</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>12.10540917330754</v>
+        <v>12.11374450297112</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.479</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>10.07663353652951</v>
+        <v>10.06790723927181</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.73</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>12.09218357223904</v>
+        <v>12.0873110444853</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.48</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.950072659448441</v>
+        <v>9.948889704130895</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.731</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>11.92977891013645</v>
+        <v>11.93696011652426</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.743755628409588</v>
+        <v>9.739980808888678</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.732</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>11.7106215486308</v>
+        <v>11.7105294648331</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.485</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.529179128284055</v>
+        <v>9.524276167042881</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.733</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>11.4364102828901</v>
+        <v>11.43464630621159</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.485</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.272525502169033</v>
+        <v>9.285306150148456</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.733</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>11.12381523600852</v>
+        <v>11.13402233935646</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.487</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.018902132617045</v>
+        <v>9.032030471779214</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -644,17 +644,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>10.83441619720558</v>
+        <v>10.82917044559914</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.795575467541221</v>
+        <v>8.784613799046026</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.733</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>10.52698570627915</v>
+        <v>10.51876717211259</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.528415744102926</v>
+        <v>8.521972156497476</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.734</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>10.20770740677422</v>
+        <v>10.20231087164349</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.269550880730003</v>
+        <v>8.269968650436306</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.731</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>9.88367822232939</v>
+        <v>9.899173595903086</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.021232645655893</v>
+        <v>8.024294071018124</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.73</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>9.622127666969543</v>
+        <v>9.616693242313294</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.781930418200153</v>
+        <v>7.795592504092616</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.732</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>9.32507913041114</v>
+        <v>9.3306618347314</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>7.553232046612216</v>
+        <v>7.573222317418161</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.73</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>9.054400321231615</v>
+        <v>9.055302290475669</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.342816714260206</v>
+        <v>7.356404289823624</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.731</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>8.808789114940764</v>
+        <v>8.799843037378377</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>7.131026812517801</v>
+        <v>7.147466613746444</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.73</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>8.558170267150484</v>
+        <v>8.553726489658466</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.927632510720498</v>
+        <v>6.938167362431003</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.728</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>8.288409908357508</v>
+        <v>8.295838777531298</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.723562374152576</v>
+        <v>6.733831867829459</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.727</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>8.030887156803068</v>
+        <v>8.039304470380724</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.529949309978495</v>
+        <v>6.525511023472903</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.726</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>7.799789158579717</v>
+        <v>7.81004056418345</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.508</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.355931863473839</v>
+        <v>6.34959171455293</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.726</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>7.604550107610857</v>
+        <v>7.619187995037371</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.19396496570448</v>
+        <v>6.189421385478436</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.725</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>7.425777357209757</v>
+        <v>7.434143948061223</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.036033547856606</v>
+        <v>6.038833071091812</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.724</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>7.235242726803082</v>
+        <v>7.244897271125744</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.879032779998377</v>
+        <v>5.881094543348174</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.723</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>7.063037235206364</v>
+        <v>7.064921740621307</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.512</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.74849183758426</v>
+        <v>5.746151663307141</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.723</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>6.908085773431814</v>
+        <v>6.904676172627387</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.60370018206456</v>
+        <v>5.616664972368398</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.722</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>6.748428011600304</v>
+        <v>6.75362619347985</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.514</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.481431751995603</v>
+        <v>5.478760176358083</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.721</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>6.605413509219976</v>
+        <v>6.614509826735213</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.515</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.342892452839288</v>
+        <v>5.358549975306817</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.72</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>6.47819942042967</v>
+        <v>6.47840810233859</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.516</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.234959054931442</v>
+        <v>5.245170139085279</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.72</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>6.3586176590883</v>
+        <v>6.351201304173586</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.516</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.121264239481061</v>
+        <v>5.125353330383304</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.719</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>6.216086200979439</v>
+        <v>6.208829225180112</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.517</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.001070541669161</v>
+        <v>5.009299448543875</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.72</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>6.072739177489574</v>
+        <v>6.070601316157186</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.518</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>4.887656065525875</v>
+        <v>4.894092748924617</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.718</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>5.930906701576853</v>
+        <v>5.93164364266618</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.519</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.78519569190492</v>
+        <v>4.780537778271083</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.717</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>5.797141220689233</v>
+        <v>5.804030681821997</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.519</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.674106399782328</v>
+        <v>4.67242309195773</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.718</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>5.664444841830798</v>
+        <v>5.670599519157772</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.52</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.575112388505548</v>
+        <v>4.565085099237855</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.716</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>5.538274076513825</v>
+        <v>5.543925857495865</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.521</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.476081692128872</v>
+        <v>4.463660400389807</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.715</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>5.401589832426024</v>
+        <v>5.411081450221966</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.522</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>4.350947825945942</v>
+        <v>4.354676627238391</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.715</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>5.270367138316086</v>
+        <v>5.279841318343522</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.523</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>4.241737290938104</v>
+        <v>4.242472013847257</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.714</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>5.139659968380728</v>
+        <v>5.154235944259268</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.524</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>4.135677218815768</v>
+        <v>4.14082994664994</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.714</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>5.020693433884322</v>
+        <v>5.030924286296045</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.524</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>4.03808017982537</v>
+        <v>4.034094859398597</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.713</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>4.904549596865941</v>
+        <v>4.905363988422915</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.525</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>3.939494876973629</v>
+        <v>3.929067863500443</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.713</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>4.771878806460775</v>
+        <v>4.778526968194468</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.526</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>3.831016271742117</v>
+        <v>3.826750957851963</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.712</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>4.65092827715513</v>
+        <v>4.661629883136746</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.526</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>3.732824988180843</v>
+        <v>3.72311926599518</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.711</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>4.535651457210793</v>
+        <v>4.536961804127502</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.527</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>3.611928577570071</v>
+        <v>3.610738300106834</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.711</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>4.411475633763272</v>
+        <v>4.408275636600802</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.528</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>3.4941366707175</v>
+        <v>3.505321279521526</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.709</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>4.276067252683026</v>
+        <v>4.273137954402046</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>0.529</v>
+        <v>0.528</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>3.37920012524998</v>
+        <v>3.393731527509593</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.709</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>4.143672120870374</v>
+        <v>4.1472756764888</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.529</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>3.256066803923972</v>
+        <v>3.289668048623517</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.708</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>4.015023143170117</v>
+        <v>4.022297401124794</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.53</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>3.149771827292961</v>
+        <v>3.186418877714751</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
